--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1034">
   <si>
     <t>anchor score</t>
   </si>
@@ -190,676 +190,676 @@
     <t>complaints</t>
   </si>
   <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>staples</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>dogs</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>couple</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>atm</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>staples</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>ease</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>dogs</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>mumbai</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>prior</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>new</t>
@@ -3481,10 +3481,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3542,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03535296441559606</v>
+        <v>0.03602033818728094</v>
       </c>
       <c r="C3">
         <v>196</v>
@@ -3563,28 +3563,28 @@
         <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K3">
-        <v>0.004254820234550739</v>
+        <v>0.00743735606177162</v>
       </c>
       <c r="L3">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="M3">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3592,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01838381898981165</v>
+        <v>0.0187308585894609</v>
       </c>
       <c r="C4">
         <v>53</v>
@@ -3613,16 +3613,16 @@
         <v>463</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K4">
-        <v>0.003952361094944712</v>
+        <v>0.00665602201497782</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>154</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3642,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01336216456465473</v>
+        <v>0.01361440814056978</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3663,28 +3663,28 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K5">
-        <v>0.00357829960360245</v>
+        <v>0.004254820234550739</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3692,7 +3692,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01211049008477631</v>
+        <v>0.01233910523992478</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3713,16 +3713,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K6">
-        <v>0.003318378538639262</v>
+        <v>0.003952361094944712</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3742,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01129309023420056</v>
+        <v>0.01150627496561311</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -3763,28 +3763,28 @@
         <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="K7">
-        <v>0.00310432845908528</v>
+        <v>0.00357829960360245</v>
       </c>
       <c r="L7">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3792,7 +3792,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009104780424291813</v>
+        <v>0.009276655449556788</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3813,16 +3813,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K8">
-        <v>0.003036287897789312</v>
+        <v>0.003318378538639262</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3842,7 +3842,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009104780424291813</v>
+        <v>0.009276655449556788</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3863,28 +3863,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>286</v>
+        <v>109</v>
       </c>
       <c r="K9">
-        <v>0.002907024340295993</v>
+        <v>0.00310432845908528</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3892,7 +3892,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007575635231913441</v>
+        <v>0.007718643897274487</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3913,16 +3913,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K10">
-        <v>0.002817555925433902</v>
+        <v>0.003036287897789312</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3942,7 +3942,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007575635231913441</v>
+        <v>0.007718643897274487</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3963,16 +3963,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K11">
-        <v>0.002725151788583902</v>
+        <v>0.002907024340295993</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3992,7 +3992,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007575635231913441</v>
+        <v>0.007718643897274487</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -4013,28 +4013,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="K12">
-        <v>0.002608924732146269</v>
+        <v>0.002817555925433902</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4042,7 +4042,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007142377392375623</v>
+        <v>0.007277207255102602</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -4063,16 +4063,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K13">
-        <v>0.00258034853995222</v>
+        <v>0.002725151788583902</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4092,7 +4092,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007142377392375623</v>
+        <v>0.007277207255102602</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -4113,28 +4113,28 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="K14">
-        <v>0.00258034853995222</v>
+        <v>0.002608924732146269</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4142,7 +4142,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007142377392375623</v>
+        <v>0.007277207255102602</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -4163,16 +4163,16 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K15">
-        <v>0.002479118687257206</v>
+        <v>0.00258034853995222</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4192,7 +4192,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007142377392375623</v>
+        <v>0.007277207255102602</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -4213,16 +4213,16 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K16">
-        <v>0.002426920869011815</v>
+        <v>0.00258034853995222</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4242,7 +4242,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007142377392375623</v>
+        <v>0.007277207255102602</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -4263,16 +4263,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K17">
-        <v>0.002373575434525357</v>
+        <v>0.002479118687257206</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4292,7 +4292,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006681082282327363</v>
+        <v>0.006807204070284892</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -4313,16 +4313,16 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K18">
-        <v>0.002319003187216311</v>
+        <v>0.002426920869011815</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4342,7 +4342,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006681082282327363</v>
+        <v>0.006807204070284892</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -4363,16 +4363,16 @@
         <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K19">
-        <v>0.002263115379572279</v>
+        <v>0.002373575434525357</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>466</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4392,7 +4392,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006185480265212945</v>
+        <v>0.006302246351523277</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4413,16 +4413,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K20">
-        <v>0.002263115379572279</v>
+        <v>0.002319003187216311</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4442,7 +4442,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006185480265212945</v>
+        <v>0.006302246351523277</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4463,28 +4463,28 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="K21">
-        <v>0.002262694737555106</v>
+        <v>0.002263115379572279</v>
       </c>
       <c r="L21">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>95</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4492,7 +4492,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006185480265212945</v>
+        <v>0.006302246351523277</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4513,28 +4513,28 @@
         <v>31</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="K22">
-        <v>0.002214737580110606</v>
+        <v>0.002263115379572279</v>
       </c>
       <c r="L22">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4542,7 +4542,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006185480265212945</v>
+        <v>0.006302246351523277</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4563,28 +4563,28 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="K23">
-        <v>0.002205812018326528</v>
+        <v>0.002262694737555106</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4592,7 +4592,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006185480265212945</v>
+        <v>0.006302246351523277</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4613,28 +4613,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="K24">
-        <v>0.002205812018326528</v>
+        <v>0.002214737580110606</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4642,7 +4642,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006185480265212945</v>
+        <v>0.006302246351523277</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K25">
-        <v>0.00214697976216147</v>
+        <v>0.002205812018326528</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4692,7 +4692,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006185480265212945</v>
+        <v>0.006302246351523277</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -4713,28 +4713,28 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="K26">
-        <v>0.002129720804375502</v>
+        <v>0.002205812018326528</v>
       </c>
       <c r="L26">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4742,7 +4742,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005646545117100279</v>
+        <v>0.005753137482806553</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4763,16 +4763,16 @@
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K27">
-        <v>0.002086489285394989</v>
+        <v>0.00214697976216147</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4792,7 +4792,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005646545117100279</v>
+        <v>0.005753137482806553</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4813,28 +4813,28 @@
         <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="K28">
-        <v>0.002086489285394989</v>
+        <v>0.002129720804375502</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4842,7 +4842,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005646545117100279</v>
+        <v>0.005753137482806553</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4863,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K29">
         <v>0.002086489285394989</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4892,7 +4892,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005646545117100279</v>
+        <v>0.005753137482806553</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4913,28 +4913,28 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K30">
-        <v>0.002024191931859542</v>
+        <v>0.002086489285394989</v>
       </c>
       <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>16</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4942,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005646545117100279</v>
+        <v>0.005753137482806553</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4963,16 +4963,16 @@
         <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K31">
-        <v>0.002024191931859542</v>
+        <v>0.002086489285394989</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4992,7 +4992,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005050423487942293</v>
+        <v>0.005145762598182992</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5013,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K32">
         <v>0.002024191931859542</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5042,7 +5042,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005050423487942293</v>
+        <v>0.005145762598182992</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5063,28 +5063,28 @@
         <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="K33">
-        <v>0.00196825309455326</v>
+        <v>0.002024191931859542</v>
       </c>
       <c r="L33">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5092,7 +5092,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005050423487942293</v>
+        <v>0.005145762598182992</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5113,16 +5113,16 @@
         <v>27</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K34">
-        <v>0.001959915410404856</v>
+        <v>0.002024191931859542</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5142,7 +5142,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005050423487942293</v>
+        <v>0.005145762598182992</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5163,28 +5163,28 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="K35">
-        <v>0.001959915410404856</v>
+        <v>0.00196825309455326</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5192,7 +5192,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005050423487942293</v>
+        <v>0.005145762598182992</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5213,7 +5213,7 @@
         <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K36">
         <v>0.001959915410404856</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5242,7 +5242,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005050423487942293</v>
+        <v>0.005145762598182992</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5263,7 +5263,7 @@
         <v>11</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K37">
         <v>0.001959915410404856</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>552</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5292,7 +5292,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005050423487942293</v>
+        <v>0.005145762598182992</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5313,7 +5313,7 @@
         <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K38">
         <v>0.001959915410404856</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5342,7 +5342,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004373795040427638</v>
+        <v>0.004456361131870287</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5363,28 +5363,28 @@
         <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="K39">
-        <v>0.001943192283212285</v>
+        <v>0.001959915410404856</v>
       </c>
       <c r="L39">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>109</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5392,7 +5392,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004373795040427638</v>
+        <v>0.004456361131870287</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5413,28 +5413,28 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="K40">
-        <v>0.001903588707867327</v>
+        <v>0.001959915410404856</v>
       </c>
       <c r="L40">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>293</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5442,7 +5442,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004373795040427638</v>
+        <v>0.004456361131870287</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5463,28 +5463,28 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="K41">
-        <v>0.001893458173522617</v>
+        <v>0.001903588707867327</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5492,7 +5492,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004373795040427638</v>
+        <v>0.004456361131870287</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5513,7 +5513,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K42">
         <v>0.001893458173522617</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5542,7 +5542,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -5563,7 +5563,7 @@
         <v>164</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K43">
         <v>0.001893458173522617</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5592,7 +5592,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -5613,7 +5613,7 @@
         <v>29</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K44">
         <v>0.001893458173522617</v>
@@ -5642,7 +5642,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -5663,16 +5663,16 @@
         <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K45">
-        <v>0.001824581950425021</v>
+        <v>0.001893458173522617</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5692,7 +5692,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5713,7 +5713,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K46">
         <v>0.001824581950425021</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5742,7 +5742,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5763,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K47">
         <v>0.001824581950425021</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5792,7 +5792,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5813,7 +5813,7 @@
         <v>26</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K48">
         <v>0.001824581950425021</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5842,7 +5842,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5863,7 +5863,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K49">
         <v>0.001824581950425021</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5892,7 +5892,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5913,28 +5913,28 @@
         <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="K50">
-        <v>0.001805481923637718</v>
+        <v>0.001824581950425021</v>
       </c>
       <c r="L50">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5942,7 +5942,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5963,28 +5963,28 @@
         <v>75</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K51">
-        <v>0.001771054476077855</v>
+        <v>0.001805481923637718</v>
       </c>
       <c r="L51">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="M51">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>797</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5992,7 +5992,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003571188696187812</v>
+        <v>0.003638603627551301</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -6013,28 +6013,28 @@
         <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>320</v>
+        <v>104</v>
       </c>
       <c r="K52">
-        <v>0.001753001635125862</v>
+        <v>0.001771054476077855</v>
       </c>
       <c r="L52">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M52">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>62</v>
+        <v>797</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6042,28 +6042,28 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.002555292576980999</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K53">
         <v>0.001753001635125862</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6092,7 +6092,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -6110,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K54">
         <v>0.001753001635125862</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6142,7 +6142,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -6160,10 +6160,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K55">
         <v>0.001753001635125862</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6192,7 +6192,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -6210,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K56">
         <v>0.001753001635125862</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6242,7 +6242,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -6260,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K57">
         <v>0.001753001635125862</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6292,7 +6292,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6310,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K58">
         <v>0.001753001635125862</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6342,7 +6342,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6360,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K59">
         <v>0.001753001635125862</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>296</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6410,31 +6410,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="K60">
-        <v>0.001740272174912611</v>
+        <v>0.001753001635125862</v>
       </c>
       <c r="L60">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>54</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -6442,7 +6442,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>328</v>
@@ -6492,7 +6492,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>329</v>
@@ -6542,7 +6542,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>330</v>
@@ -6592,7 +6592,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>331</v>
@@ -6642,7 +6642,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>332</v>
@@ -6692,7 +6692,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>333</v>
@@ -6742,7 +6742,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6760,10 +6760,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K67">
         <v>0.001666110237985895</v>
@@ -6792,7 +6792,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>334</v>
@@ -6842,7 +6842,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>335</v>
@@ -6892,7 +6892,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>336</v>
@@ -6942,7 +6942,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>337</v>
@@ -6992,7 +6992,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>338</v>
@@ -7042,7 +7042,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>339</v>
@@ -7092,7 +7092,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7110,10 +7110,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K74">
         <v>0.001589152450679989</v>
@@ -7142,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>340</v>
@@ -7192,7 +7192,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>341</v>
@@ -7242,7 +7242,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>342</v>
@@ -7292,7 +7292,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>343</v>
@@ -7342,7 +7342,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>344</v>
@@ -7392,7 +7392,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>345</v>
@@ -7442,7 +7442,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>346</v>
@@ -7492,7 +7492,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>347</v>
@@ -7542,7 +7542,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>348</v>
@@ -7592,7 +7592,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>349</v>
@@ -7642,7 +7642,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7692,7 +7692,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>351</v>
@@ -7742,7 +7742,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>352</v>
@@ -7792,7 +7792,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>353</v>
@@ -7842,7 +7842,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>354</v>
@@ -7892,7 +7892,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>18</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K90">
         <v>0.001495100768862239</v>
@@ -7942,7 +7942,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7960,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K91">
         <v>0.001447587745378719</v>
@@ -7992,7 +7992,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002525211743971147</v>
+        <v>0.002572881299091496</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8010,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K92">
         <v>0.001447587745378719</v>
@@ -8042,28 +8042,28 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002525211743971147</v>
+        <v>0.002497230267084403</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K93">
         <v>0.001440268933281409</v>
@@ -8092,25 +8092,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002450962351068604</v>
+        <v>0.002379271788141644</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="E94">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F94">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>355</v>
@@ -8142,25 +8142,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002335189370623525</v>
+        <v>0.002100939824862149</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="E95">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F95">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>132</v>
+        <v>2952</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>356</v>
@@ -8192,25 +8192,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002287129997616858</v>
+        <v>0.001998381783846814</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="E96">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F96">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>357</v>
@@ -8242,25 +8242,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002062014256542629</v>
+        <v>0.001975584231932118</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E97">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F97">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>2952</v>
+        <v>293</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>358</v>
@@ -8292,13 +8292,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001961356379437281</v>
+        <v>0.001813090423567741</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E98">
         <v>0.97</v>
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>359</v>
@@ -8342,13 +8342,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001938981213568141</v>
+        <v>0.001800901532884557</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E99">
         <v>0.96</v>
@@ -8360,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>293</v>
+        <v>797</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>360</v>
@@ -8392,25 +8392,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001779498040617561</v>
+        <v>0.001793689518690352</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E100">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F100">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>788</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>361</v>
@@ -8442,25 +8442,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001767534981960317</v>
+        <v>0.001750880817290209</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E101">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F101">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>797</v>
+        <v>11</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>362</v>
@@ -8492,25 +8492,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001760456589751813</v>
+        <v>0.001749265293832549</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E102">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F102">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>788</v>
+        <v>25</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>363</v>
@@ -8542,25 +8542,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001718441034833688</v>
+        <v>0.001505005481060209</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D103">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E103">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F103">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>364</v>
@@ -8592,25 +8592,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001716855443298866</v>
+        <v>0.00148476081290527</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F104">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>365</v>
@@ -8642,25 +8642,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001477121201376898</v>
+        <v>0.001452754825598875</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E105">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F105">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>366</v>
@@ -8692,25 +8692,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001457251620220666</v>
+        <v>0.001445534275868943</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E106">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F106">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>14</v>
+        <v>3134</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>367</v>
@@ -8742,25 +8742,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001425838630024796</v>
+        <v>0.001430892008934101</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E107">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F107">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>368</v>
@@ -8792,25 +8792,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001418751860424352</v>
+        <v>0.001417691559394938</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D108">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E108">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F108">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>3134</v>
+        <v>2060</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>369</v>
@@ -8842,25 +8842,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001404380880917726</v>
+        <v>0.001310031163868097</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E109">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F109">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>370</v>
@@ -8892,25 +8892,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001391425005256551</v>
+        <v>0.001239188829809081</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E110">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F110">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>2060</v>
+        <v>19</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>371</v>
@@ -8942,25 +8942,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001285759308498229</v>
+        <v>0.00122666841605829</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E111">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F111">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>372</v>
@@ -8992,25 +8992,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001216229519463919</v>
+        <v>0.001166199888189608</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E112">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F112">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>373</v>
@@ -9042,13 +9042,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001203941080096724</v>
+        <v>0.001122376906525615</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E113">
         <v>0.98</v>
@@ -9092,13 +9092,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001144592894555262</v>
+        <v>0.001122376906525615</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E114">
         <v>0.98</v>
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>375</v>
@@ -9142,25 +9142,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001101581851646744</v>
+        <v>0.001112262307895529</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E115">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F115">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>376</v>
@@ -9192,25 +9192,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001101581851646744</v>
+        <v>0.001096626863402984</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E116">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F116">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>377</v>
@@ -9242,25 +9242,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001091654653196016</v>
+        <v>0.001002411681449416</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E117">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F117">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>378</v>
@@ -9292,25 +9292,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001076308897420681</v>
+        <v>0.001002411681449416</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E118">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F118">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>58</v>
+        <v>834</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>379</v>
@@ -9342,25 +9342,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0009838393054447366</v>
+        <v>0.0009933285392751976</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
         <v>33</v>
       </c>
       <c r="E119">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F119">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>380</v>
@@ -9392,13 +9392,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0009838393054447366</v>
+        <v>0.0009893648795622617</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E120">
         <v>0.97</v>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>834</v>
+        <v>205</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>381</v>
@@ -9442,25 +9442,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.000974924452941205</v>
+        <v>0.0009758656591440996</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E121">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F121">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>382</v>
@@ -9492,25 +9492,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0009710342306990264</v>
+        <v>0.0009553363301378218</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E122">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F122">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>383</v>
@@ -9542,25 +9542,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0009577851196940083</v>
+        <v>0.0009546743687055215</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
         <v>31</v>
       </c>
       <c r="E123">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>384</v>
@@ -9592,25 +9592,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0009376361517953319</v>
+        <v>0.0009546743687055215</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E124">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>385</v>
@@ -9642,25 +9642,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0009369864549813004</v>
+        <v>0.0009337132987425258</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>386</v>
@@ -9692,25 +9692,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0009369864549813004</v>
+        <v>0.0009167141200103789</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E126">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F126">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>387</v>
@@ -9742,25 +9742,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0009164137452898553</v>
+        <v>0.0009004507664422785</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E127">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F127">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>382</v>
+        <v>33</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>388</v>
@@ -9792,13 +9792,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.000899729522124395</v>
+        <v>0.0008835081275753854</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E128">
         <v>0.96</v>
@@ -9810,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>389</v>
@@ -9842,13 +9842,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0008837674909801584</v>
+        <v>0.0008835081275753854</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129">
         <v>0.96</v>
@@ -9860,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>390</v>
@@ -9892,13 +9892,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0008671387601266801</v>
+        <v>0.0008658327389883399</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E130">
         <v>0.96</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>391</v>
@@ -9942,13 +9942,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0008671387601266801</v>
+        <v>0.0008473647685723752</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E131">
         <v>0.96</v>
@@ -9960,7 +9960,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>392</v>
@@ -9992,25 +9992,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0008497908557149913</v>
+        <v>0.0008280369812702101</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E132">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F132">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>393</v>
@@ -10042,25 +10042,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0008316650541872747</v>
+        <v>0.0008280369812702101</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E133">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F133">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>394</v>
@@ -10092,28 +10092,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0008126953661967571</v>
+        <v>0.0008222038171878798</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E134">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F134">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K134">
         <v>0.001313196454171708</v>
@@ -10142,13 +10142,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0008126953661967571</v>
+        <v>0.0008077734876059521</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E135">
         <v>0.95</v>
@@ -10160,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>395</v>
@@ -10192,25 +10192,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0008069702771884097</v>
+        <v>0.0008077734876059521</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E136">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F136">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>396</v>
@@ -10242,7 +10242,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.000792807308324465</v>
+        <v>0.0008077734876059521</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10260,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>397</v>
@@ -10292,25 +10292,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.000792807308324465</v>
+        <v>0.0007904667007040652</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F138">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>398</v>
@@ -10342,13 +10342,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.000792807308324465</v>
+        <v>0.000786488220371128</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E139">
         <v>0.95</v>
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>399</v>
@@ -10392,25 +10392,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0007758211762590322</v>
+        <v>0.0007712600550013285</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E140">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F140">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>622</v>
+        <v>4</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>400</v>
@@ -10442,13 +10442,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0007719164079887514</v>
+        <v>0.000764083066768525</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E141">
         <v>0.95</v>
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>401</v>
@@ -10492,25 +10492,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0007569703853935656</v>
+        <v>0.0007404455602117378</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F142">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>402</v>
@@ -10542,25 +10542,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0007499263701962</v>
+        <v>0.0007404455602117378</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F143">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>403</v>
@@ -10592,7 +10592,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.000726726812106804</v>
+        <v>0.0007404455602117378</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>404</v>
@@ -10642,13 +10642,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.000726726812106804</v>
+        <v>0.0006889338595906806</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>0.9399999999999999</v>
@@ -10660,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>405</v>
@@ -10692,13 +10692,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.000726726812106804</v>
+        <v>0.0006889338595906806</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>0.9399999999999999</v>
@@ -10710,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>406</v>
@@ -10742,7 +10742,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0006761695044664744</v>
+        <v>0.0006889338595906806</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10760,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>407</v>
@@ -10792,25 +10792,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0006761695044664744</v>
+        <v>0.0006607331596043719</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E148">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F148">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>408</v>
@@ -10842,25 +10842,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0006761695044664744</v>
+        <v>0.0006559663010647693</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E149">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F149">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>409</v>
@@ -10892,13 +10892,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0006484912983950246</v>
+        <v>0.0006306366500918571</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E150">
         <v>0.93</v>
@@ -10910,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>410</v>
@@ -10942,25 +10942,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0006438127587475469</v>
+        <v>0.0006306366500918571</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E151">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F151">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>308</v>
+        <v>2</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>411</v>
@@ -10992,7 +10992,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0006189524077744672</v>
+        <v>0.0006306366500918571</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11042,7 +11042,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0006189524077744672</v>
+        <v>0.0006306366500918571</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11060,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>413</v>
@@ -11092,7 +11092,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0006189524077744672</v>
+        <v>0.0006306366500918571</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>414</v>
@@ -11142,25 +11142,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0006189524077744672</v>
+        <v>0.0005983982229196026</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E155">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F155">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>415</v>
@@ -11192,25 +11192,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0006189524077744672</v>
+        <v>0.0005983982229196026</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>416</v>
@@ -11242,7 +11242,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0005873112842872384</v>
+        <v>0.0005983982229196026</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11260,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>417</v>
@@ -11292,25 +11292,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0005873112842872384</v>
+        <v>0.0005856131647847866</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
+        <v>21</v>
+      </c>
+      <c r="E158">
+        <v>0.86</v>
+      </c>
+      <c r="F158">
+        <v>0.14</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158">
         <v>13</v>
-      </c>
-      <c r="E158">
-        <v>0.92</v>
-      </c>
-      <c r="F158">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>418</v>
@@ -11342,13 +11342,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0005873112842872384</v>
+        <v>0.00056372307970551</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E159">
         <v>0.92</v>
@@ -11360,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>419</v>
@@ -11392,25 +11392,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0005747631037859494</v>
+        <v>0.00056372307970551</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E160">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F160">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>420</v>
@@ -11442,7 +11442,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0005532785914851931</v>
+        <v>0.00056372307970551</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11460,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>421</v>
@@ -11492,25 +11492,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0005532785914851931</v>
+        <v>0.0005546831836976445</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E162">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F162">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>422</v>
@@ -11542,25 +11542,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0005532785914851931</v>
+        <v>0.0005262548811835896</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F163">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>423</v>
@@ -11592,25 +11592,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0005444061838963158</v>
+        <v>0.0005262548811835896</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E164">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F164">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>424</v>
@@ -11642,7 +11642,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0005165045922469053</v>
+        <v>0.0005262548811835896</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11660,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>425</v>
@@ -11692,7 +11692,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0005165045922469053</v>
+        <v>0.0005262548811835896</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11710,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>426</v>
@@ -11742,7 +11742,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0005165045922469053</v>
+        <v>0.0005262548811835896</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11760,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>427</v>
@@ -11792,7 +11792,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0005165045922469053</v>
+        <v>0.0005262548811835896</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>428</v>
@@ -11842,25 +11842,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0005165045922469053</v>
+        <v>0.0005174237205738225</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E169">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F169">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>429</v>
@@ -11892,25 +11892,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0005165045922469053</v>
+        <v>0.0005174237205738225</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E170">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F170">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>430</v>
@@ -11942,25 +11942,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.000507837052670729</v>
+        <v>0.0004855589843085699</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E171">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>431</v>
@@ -11992,25 +11992,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.000507837052670729</v>
+        <v>0.000478151146793043</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E172">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>432</v>
@@ -12042,25 +12042,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0004765626964600589</v>
+        <v>0.000478151146793043</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>433</v>
@@ -12092,25 +12092,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.000469292109084635</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F174">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>434</v>
@@ -12142,25 +12142,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.000469292109084635</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E175">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F175">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>435</v>
@@ -12192,7 +12192,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0004329283419822031</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>436</v>
@@ -12242,7 +12242,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0004329283419822031</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12260,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>437</v>
@@ -12292,7 +12292,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0004329283419822031</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>438</v>
@@ -12342,7 +12342,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0004329283419822031</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12360,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>439</v>
@@ -12392,7 +12392,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0004329283419822031</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>440</v>
@@ -12442,7 +12442,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0004329283419822031</v>
+        <v>0.0004411009245430728</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12460,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>441</v>
@@ -12492,25 +12492,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0004329283419822031</v>
+        <v>0.000392840069720701</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E182">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F182">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>442</v>
@@ -12542,25 +12542,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004329283419822031</v>
+        <v>0.000392840069720701</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E183">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F183">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>443</v>
@@ -12592,7 +12592,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.00038556164946725</v>
+        <v>0.000392840069720701</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -12610,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>444</v>
@@ -12642,25 +12642,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.00038556164946725</v>
+        <v>0.0003922202406027478</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F185">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>445</v>
@@ -12692,25 +12692,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.00038556164946725</v>
+        <v>0.0003922202406027478</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E186">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F186">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>446</v>
@@ -12742,7 +12742,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0003849533043529755</v>
+        <v>0.0003922202406027478</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>447</v>
@@ -12792,7 +12792,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0003849533043529755</v>
+        <v>0.0003922202406027478</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12810,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>448</v>
@@ -12842,7 +12842,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0003849533043529755</v>
+        <v>0.0003922202406027478</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12860,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>449</v>
@@ -12892,25 +12892,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0003849533043529755</v>
+        <v>0.0003841989766147434</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E190">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="F190">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>450</v>
@@ -12942,25 +12942,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003849533043529755</v>
+        <v>0.000338103918329485</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>451</v>
@@ -12992,25 +12992,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003770806558825024</v>
+        <v>0.000338103918329485</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E192">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="F192">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>452</v>
@@ -13042,7 +13042,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003318396326910824</v>
+        <v>0.000338103918329485</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -13060,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>453</v>
@@ -13092,7 +13092,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003318396326910824</v>
+        <v>0.000338103918329485</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>454</v>
@@ -13142,7 +13142,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003318396326910824</v>
+        <v>0.000338103918329485</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>455</v>
@@ -13192,7 +13192,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003318396326910824</v>
+        <v>0.000338103918329485</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>456</v>
@@ -13242,7 +13242,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003318396326910824</v>
+        <v>0.000338103918329485</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>457</v>
@@ -13292,25 +13292,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003318396326910824</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F198">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>458</v>
@@ -13342,25 +13342,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003318396326910824</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>459</v>
@@ -13392,7 +13392,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002726332569037631</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>460</v>
@@ -13442,7 +13442,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002726332569037631</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13460,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>461</v>
@@ -13492,7 +13492,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002726332569037631</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13510,10 +13510,10 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K202">
         <v>0.001125741813611626</v>
@@ -13542,7 +13542,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002726332569037631</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K203">
         <v>0.001115303476656613</v>
@@ -13592,7 +13592,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002726332569037631</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13610,10 +13610,10 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K204">
         <v>0.001115303476656613</v>
@@ -13642,7 +13642,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002726332569037631</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13663,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K205">
         <v>0.001083451024270404</v>
@@ -13692,7 +13692,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002726332569037631</v>
+        <v>0.0002777798772213038</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13710,10 +13710,10 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K206">
         <v>0.001083006049010782</v>
@@ -13742,28 +13742,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002726332569037631</v>
+        <v>0.000245354355988415</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
+        <v>9</v>
+      </c>
+      <c r="E207">
+        <v>0.78</v>
+      </c>
+      <c r="F207">
+        <v>0.22</v>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207">
         <v>6</v>
       </c>
-      <c r="E207">
-        <v>0.83</v>
-      </c>
-      <c r="F207">
-        <v>0.17</v>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207">
-        <v>1</v>
-      </c>
       <c r="J207" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K207">
         <v>0.001051290186905332</v>
@@ -13792,25 +13792,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002726332569037631</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>462</v>
@@ -13842,25 +13842,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002408085057772384</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>463</v>
@@ -13892,7 +13892,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>464</v>
@@ -13942,7 +13942,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13960,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>465</v>
@@ -13992,7 +13992,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>466</v>
@@ -14042,7 +14042,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>467</v>
@@ -14092,7 +14092,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14110,7 +14110,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>468</v>
@@ -14142,7 +14142,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14160,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>469</v>
@@ -14192,7 +14192,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14210,7 +14210,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>470</v>
@@ -14242,7 +14242,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14260,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>471</v>
@@ -14292,7 +14292,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14310,7 +14310,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>472</v>
@@ -14342,7 +14342,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002063203193769707</v>
+        <v>0.0002102151206190724</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14392,25 +14392,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002063203193769707</v>
+        <v>0.000190767138768046</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>474</v>
@@ -14442,25 +14442,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002063203193769707</v>
+        <v>0.0001410645494131325</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>475</v>
@@ -14492,13 +14492,13 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001872326637653066</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E222">
         <v>0.75</v>
@@ -14510,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>964</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>476</v>
@@ -14542,25 +14542,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001384509487327782</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>477</v>
@@ -14592,7 +14592,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>964</v>
+        <v>2</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>478</v>
@@ -14642,7 +14642,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14660,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>479</v>
@@ -14692,7 +14692,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>480</v>
@@ -14742,7 +14742,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14760,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>481</v>
@@ -14792,7 +14792,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>482</v>
@@ -14842,7 +14842,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>483</v>
@@ -14892,7 +14892,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>484</v>
@@ -14942,7 +14942,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14960,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>485</v>
@@ -14992,7 +14992,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -15010,7 +15010,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>486</v>
@@ -15042,7 +15042,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -15060,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>487</v>
@@ -15092,7 +15092,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>488</v>
@@ -15142,7 +15142,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15160,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>489</v>
@@ -15192,7 +15192,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>490</v>
@@ -15242,7 +15242,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15260,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>491</v>
@@ -15292,7 +15292,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>492</v>
@@ -15342,7 +15342,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001323934862080696</v>
+        <v>0.000134892737450441</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15360,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>493</v>
@@ -15392,25 +15392,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001323934862080696</v>
+        <v>7.764749449514883E-05</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E240">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F240">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>494</v>
@@ -15442,25 +15442,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001323934862080696</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>495</v>
@@ -15492,25 +15492,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>7.620886554631218E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
         <v>3</v>
       </c>
       <c r="E242">
+        <v>0.67</v>
+      </c>
+      <c r="F242">
         <v>0.33</v>
       </c>
-      <c r="F242">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>496</v>
@@ -15542,7 +15542,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15592,7 +15592,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>498</v>
@@ -15642,7 +15642,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15692,7 +15692,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15710,7 +15710,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>500</v>
@@ -15742,7 +15742,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15792,7 +15792,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15842,7 +15842,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15860,7 +15860,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>503</v>
@@ -15892,7 +15892,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15942,7 +15942,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>505</v>
@@ -15992,7 +15992,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16010,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>506</v>
@@ -16042,7 +16042,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16060,7 +16060,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>507</v>
@@ -16092,7 +16092,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>5.388780561433034E-05</v>
+        <v>5.4905069899664E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16110,7 +16110,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>508</v>
@@ -16142,25 +16142,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.388780561433034E-05</v>
+        <v>2.683116408712262E-05</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>509</v>
@@ -16192,25 +16192,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.388780561433034E-05</v>
+        <v>2.683116408712262E-05</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F256">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>510</v>
@@ -16242,25 +16242,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>2.633404451310813E-05</v>
+        <v>1.658473194791598E-05</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E257">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F257">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>511</v>
@@ -16292,28 +16292,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>2.633404451310813E-05</v>
+        <v>0</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F258">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K258">
         <v>0.0009881168625967929</v>
@@ -16342,28 +16342,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>1.627745512405841E-05</v>
+        <v>0</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F259">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K259">
         <v>0.000974921008690035</v>
@@ -16410,10 +16410,10 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K260">
         <v>0.0009535774414287542</v>
@@ -16460,10 +16460,10 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K261">
         <v>0.0009277195151966522</v>
@@ -16510,10 +16510,10 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K262">
         <v>0.0009193746878091967</v>
@@ -16560,10 +16560,10 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K263">
         <v>0.0008855272380389276</v>
@@ -16610,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>512</v>
@@ -16660,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>513</v>
@@ -16710,7 +16710,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>514</v>
@@ -16760,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>515</v>
@@ -16810,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>516</v>
@@ -16860,7 +16860,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>517</v>
@@ -16910,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>518</v>
@@ -16960,7 +16960,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>519</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>520</v>
@@ -17060,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>521</v>
@@ -17088,30 +17088,6 @@
       </c>
     </row>
     <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>2</v>
-      </c>
-      <c r="E274">
-        <v>0.5</v>
-      </c>
-      <c r="F274">
-        <v>0.5</v>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>34</v>
-      </c>
       <c r="J274" s="1" t="s">
         <v>522</v>
       </c>
@@ -17138,30 +17114,6 @@
       </c>
     </row>
     <row r="275" spans="1:17">
-      <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>2</v>
-      </c>
-      <c r="E275">
-        <v>0.5</v>
-      </c>
-      <c r="F275">
-        <v>0.5</v>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275">
-        <v>38</v>
-      </c>
       <c r="J275" s="1" t="s">
         <v>523</v>
       </c>
@@ -19217,7 +19169,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K354">
         <v>0.0008537669515942698</v>
@@ -19243,7 +19195,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K355">
         <v>0.0008513107503984662</v>
@@ -19269,7 +19221,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K356">
         <v>0.0008513107503984662</v>
@@ -19295,7 +19247,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K357">
         <v>0.0008167137535907505</v>
@@ -19321,7 +19273,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K358">
         <v>0.0007817244423502376</v>
@@ -19347,7 +19299,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K359">
         <v>0.0007691848297367141</v>
@@ -19373,7 +19325,7 @@
     </row>
     <row r="360" spans="10:17">
       <c r="J360" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K360">
         <v>0.0007463307379849333</v>
@@ -19399,7 +19351,7 @@
     </row>
     <row r="361" spans="10:17">
       <c r="J361" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K361">
         <v>0.0007463307379849333</v>
@@ -22987,7 +22939,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K499">
         <v>0.0007150085114228009</v>
@@ -23013,7 +22965,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K500">
         <v>0.0007150085114228009</v>
@@ -23039,7 +22991,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K501">
         <v>0.0007105203818214537</v>
@@ -23065,7 +23017,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K502">
         <v>0.0007105203818214537</v>
@@ -23091,7 +23043,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K503">
         <v>0.0007105203818214537</v>
@@ -23117,7 +23069,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K504">
         <v>0.0006742810752207905</v>
@@ -23143,7 +23095,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K505">
         <v>0.00063760068586979</v>
@@ -23169,7 +23121,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K506">
         <v>0.0006136808952921618</v>
@@ -23195,7 +23147,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K507">
         <v>0.000600467549103649</v>
@@ -23221,7 +23173,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K508">
         <v>0.000600467549103649</v>
@@ -23247,7 +23199,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K509">
         <v>0.000600467549103649</v>
@@ -23273,7 +23225,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K510">
         <v>0.0005903447588019692</v>
@@ -23299,7 +23251,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K511">
         <v>0.0005484036753564494</v>
@@ -23325,7 +23277,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K512">
         <v>0.0005248015478359824</v>
@@ -23351,7 +23303,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K513">
         <v>0.0005248015478359824</v>
@@ -23377,7 +23329,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K514">
         <v>0.0005248015478359824</v>
@@ -31125,7 +31077,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K812">
         <v>0.0004915497011485049</v>
@@ -31151,7 +31103,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K813">
         <v>0.000486252747848136</v>
@@ -31177,7 +31129,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K814">
         <v>0.0004488124589269079</v>
@@ -31203,7 +31155,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K815">
         <v>0.0004472216613492444</v>
@@ -31229,7 +31181,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K816">
         <v>0.0004472216613492444</v>
@@ -31255,7 +31207,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K817">
         <v>0.0004472216613492444</v>
@@ -31281,7 +31233,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K818">
         <v>0.0004472216613492444</v>
@@ -31307,7 +31259,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K819">
         <v>0.0004472216613492444</v>
@@ -31333,7 +31285,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K820">
         <v>0.0004077114103961505</v>
@@ -31359,7 +31311,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K821">
         <v>0.0004077114103961505</v>
@@ -31385,7 +31337,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K822">
         <v>0.0004077114103961505</v>
@@ -31411,7 +31363,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K823">
         <v>0.0003761516226687512</v>
@@ -31437,7 +31389,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K824">
         <v>0.0003677342713925805</v>
@@ -31463,7 +31415,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K825">
         <v>0.0003677342713925805</v>
@@ -31489,7 +31441,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K826">
         <v>0.0003677342713925805</v>
@@ -31515,7 +31467,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K827">
         <v>0.0003273166404176491</v>
@@ -31541,7 +31493,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K828">
         <v>0.0003273166404176491</v>
@@ -31567,7 +31519,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K829">
         <v>0.0003273166404176491</v>
@@ -31593,7 +31545,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K830">
         <v>0.0003273166404176491</v>
@@ -31619,7 +31571,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K831">
         <v>0.0003273166404176491</v>
@@ -31645,7 +31597,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K832">
         <v>0.0003273166404176491</v>
@@ -31671,7 +31623,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K833">
         <v>0.0002886462817590983</v>
@@ -31697,7 +31649,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K834">
         <v>0.0002865069733764179</v>
@@ -31723,7 +31675,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K835">
         <v>0.0002821359346881724</v>
@@ -31749,7 +31701,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K836">
         <v>0.000259462716447656</v>
@@ -31775,7 +31727,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K837">
         <v>0.000259462716447656</v>
@@ -31801,7 +31753,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K838">
         <v>0.0002453888974976799</v>
@@ -31827,7 +31779,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K839">
         <v>0.0002453888974976799</v>
@@ -31853,7 +31805,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K840">
         <v>0.0002453888974976799</v>
@@ -31879,7 +31831,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K841">
         <v>0.0002453888974976799</v>
@@ -31905,7 +31857,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K842">
         <v>0.0002453888974976799</v>
@@ -31931,7 +31883,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K843">
         <v>0.0002453888974976799</v>
@@ -31957,7 +31909,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K844">
         <v>0.0002453888974976799</v>
@@ -31983,7 +31935,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K845">
         <v>0.0002453888974976799</v>
@@ -32009,7 +31961,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K846">
         <v>0.000230363026029741</v>
@@ -32035,7 +31987,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K847">
         <v>0.000230363026029741</v>
@@ -32061,7 +32013,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K848">
         <v>0.0002041037431961417</v>
@@ -32087,7 +32039,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K849">
         <v>0.0002041037431961417</v>
@@ -32113,7 +32065,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K850">
         <v>0.0002041037431961417</v>
@@ -32139,7 +32091,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K851">
         <v>0.0002041037431961417</v>
@@ -32165,7 +32117,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K852">
         <v>0.0002041037431961417</v>
@@ -32191,7 +32143,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K853">
         <v>0.0001727717488970617</v>
@@ -32217,7 +32169,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K854">
         <v>0.0001727717488970617</v>
@@ -32243,7 +32195,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K855">
         <v>0.0001727717488970617</v>
@@ -32269,7 +32221,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K856">
         <v>0.000162891257840283</v>
@@ -32295,7 +32247,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K857">
         <v>0.000162891257840283</v>
@@ -32321,7 +32273,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K858">
         <v>0.000162891257840283</v>
@@ -32347,7 +32299,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K859">
         <v>0.000162891257840283</v>
@@ -32373,7 +32325,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K860">
         <v>0.000162891257840283</v>
@@ -32399,7 +32351,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K861">
         <v>0.000162891257840283</v>
@@ -32425,7 +32377,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K862">
         <v>0.000162891257840283</v>
@@ -32451,7 +32403,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K863">
         <v>0.0001463335085056002</v>
@@ -32477,7 +32429,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K864">
         <v>0.0001221680752425717</v>
@@ -32503,7 +32455,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K865">
         <v>0.0001221680752425717</v>
@@ -32529,7 +32481,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K866">
         <v>0.0001221680752425717</v>
@@ -32555,7 +32507,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K867">
         <v>0.0001221680752425717</v>
@@ -32581,7 +32533,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K868">
         <v>0.0001221680752425717</v>
@@ -32607,7 +32559,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K869">
         <v>0.0001221680752425717</v>
@@ -32633,7 +32585,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K870">
         <v>0.0001221680752425717</v>
@@ -32659,7 +32611,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K871">
         <v>0.0001221680752425717</v>
@@ -32685,7 +32637,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K872">
         <v>0.0001221680752425717</v>
@@ -32711,7 +32663,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K873">
         <v>9.028170303070043E-05</v>
@@ -32737,7 +32689,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K874">
         <v>8.269245675310779E-05</v>
@@ -32763,7 +32715,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K875">
         <v>8.269245675310779E-05</v>
@@ -32789,7 +32741,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K876">
         <v>8.269245675310779E-05</v>
@@ -32815,7 +32767,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K877">
         <v>8.269245675310779E-05</v>
@@ -32841,7 +32793,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K878">
         <v>8.269245675310779E-05</v>
@@ -32867,7 +32819,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K879">
         <v>8.269245675310779E-05</v>
@@ -32893,7 +32845,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K880">
         <v>8.269245675310779E-05</v>
@@ -32919,7 +32871,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K881">
         <v>8.269245675310779E-05</v>
@@ -32945,7 +32897,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K882">
         <v>8.269245675310779E-05</v>
@@ -32971,7 +32923,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K883">
         <v>8.269245675310779E-05</v>
@@ -32997,7 +32949,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K884">
         <v>8.269245675310779E-05</v>
@@ -33023,7 +32975,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K885">
         <v>8.269245675310779E-05</v>
@@ -33049,7 +33001,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K886">
         <v>6.498844433801736E-05</v>
@@ -33075,7 +33027,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K887">
         <v>4.595376969017656E-05</v>
@@ -33101,7 +33053,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K888">
         <v>4.595376969017656E-05</v>
@@ -33127,7 +33079,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K889">
         <v>4.595376969017656E-05</v>
@@ -33153,7 +33105,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K890">
         <v>4.595376969017656E-05</v>
@@ -33179,7 +33131,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K891">
         <v>4.595376969017656E-05</v>
@@ -33205,7 +33157,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K892">
         <v>4.595376969017656E-05</v>
@@ -33231,7 +33183,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K893">
         <v>4.595376969017656E-05</v>
@@ -33257,7 +33209,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K894">
         <v>4.595376969017656E-05</v>
@@ -33283,7 +33235,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K895">
         <v>4.595376969017656E-05</v>
@@ -33309,7 +33261,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K896">
         <v>4.595376969017656E-05</v>
@@ -33335,7 +33287,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K897">
         <v>4.595376969017656E-05</v>
@@ -33361,7 +33313,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K898">
         <v>4.595376969017656E-05</v>
@@ -33387,7 +33339,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K899">
         <v>4.595376969017656E-05</v>
@@ -33413,7 +33365,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K900">
         <v>4.595376969017656E-05</v>
@@ -33439,7 +33391,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K901">
         <v>4.595376969017656E-05</v>
@@ -33465,7 +33417,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K902">
         <v>4.595376969017656E-05</v>
@@ -33491,7 +33443,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K903">
         <v>4.595376969017656E-05</v>
@@ -33517,7 +33469,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K904">
         <v>4.595376969017656E-05</v>
@@ -33543,7 +33495,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K905">
         <v>4.238168570100709E-05</v>
@@ -33569,7 +33521,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K906">
         <v>1.527212234214688E-05</v>
@@ -33595,7 +33547,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K907">
         <v>1.527212234214688E-05</v>
@@ -33621,7 +33573,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K908">
         <v>1.527212234214688E-05</v>
@@ -33647,7 +33599,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K909">
         <v>1.527212234214688E-05</v>
@@ -33673,7 +33625,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K910">
         <v>1.527212234214688E-05</v>
@@ -33699,7 +33651,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K911">
         <v>1.527212234214688E-05</v>
@@ -33725,7 +33677,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K912">
         <v>1.527212234214688E-05</v>
@@ -33751,7 +33703,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K913">
         <v>1.527212234214688E-05</v>
@@ -33777,7 +33729,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K914">
         <v>1.527212234214688E-05</v>
@@ -33803,7 +33755,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K915">
         <v>1.527212234214688E-05</v>
@@ -33829,7 +33781,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K916">
         <v>1.527212234214688E-05</v>
@@ -33855,7 +33807,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K917">
         <v>1.527212234214688E-05</v>
@@ -33881,7 +33833,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K918">
         <v>1.527212234214688E-05</v>
@@ -33907,7 +33859,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K919">
         <v>1.527212234214688E-05</v>
@@ -33933,7 +33885,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K920">
         <v>1.079902127124247E-05</v>
@@ -33959,7 +33911,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K921">
         <v>6.463341343490857E-06</v>
@@ -33985,7 +33937,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K922">
         <v>6.463341343490857E-06</v>
@@ -34011,7 +33963,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K923">
         <v>3.766602347478004E-06</v>
@@ -34037,7 +33989,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K924">
         <v>0</v>
@@ -34063,7 +34015,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K925">
         <v>0</v>
@@ -34089,7 +34041,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K926">
         <v>0</v>
@@ -34115,7 +34067,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K927">
         <v>0</v>
@@ -34141,7 +34093,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K928">
         <v>0</v>
@@ -34167,7 +34119,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K929">
         <v>0</v>
@@ -34193,7 +34145,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K930">
         <v>0</v>
@@ -34219,7 +34171,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K931">
         <v>0</v>
@@ -34245,7 +34197,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K932">
         <v>0</v>
@@ -34271,7 +34223,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K933">
         <v>0</v>
@@ -34297,7 +34249,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K934">
         <v>0</v>
@@ -34323,7 +34275,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K935">
         <v>0</v>
@@ -34349,7 +34301,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K936">
         <v>0</v>
@@ -34375,7 +34327,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K937">
         <v>0</v>
@@ -34401,7 +34353,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K938">
         <v>0</v>
@@ -34427,7 +34379,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K939">
         <v>0</v>
